--- a/Alpha/Hotel/LittleFramework_02/bravo.xlsx
+++ b/Alpha/Hotel/LittleFramework_02/bravo.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10613"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C4D687-9CFB-6C4C-A1BE-916DD1072F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF57CC5-DA7C-FA42-B994-8B97E07B9C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13480" yWindow="-20080" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11400" yWindow="-20080" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,218 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.5"/>
+        <color rgb="FF008080"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>"username"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.5"/>
+        <color rgb="FF008080"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>"admin1"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.5"/>
+        <color rgb="FF008080"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>"password"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.5"/>
+        <color rgb="FF008080"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>"admin"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.5"/>
+        <color rgb="FF008080"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>"username"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.5"/>
+        <color rgb="FF008080"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>"admin"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.5"/>
+        <color rgb="FF008080"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>"password"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.5"/>
+        <color rgb="FF008080"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>"admin1"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>module</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>excepted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常登陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常登陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>http://localhost:8089/user/login.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -97,169 +303,6 @@
         <family val="1"/>
       </rPr>
       <t>"admin"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13.5"/>
-        <color rgb="FF008080"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>"username"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13.5"/>
-        <color rgb="FF008080"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>"admin1"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13.5"/>
-        <color rgb="FF008080"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>"password"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13.5"/>
-        <color rgb="FF008080"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>"admin"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13.5"/>
-        <color rgb="FF008080"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>"username"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13.5"/>
-        <color rgb="FF008080"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>"admin"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13.5"/>
-        <color rgb="FF008080"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>"password"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13.5"/>
-        <color rgb="FF008080"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>"admin1"</t>
     </r>
     <r>
       <rPr>
@@ -326,10 +369,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -610,57 +654,112 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="49.6640625" customWidth="1"/>
-    <col min="3" max="3" width="58.5" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="18.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="49.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" style="1"/>
+    <col min="6" max="6" width="58.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="19">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:7" ht="19">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="2" spans="1:4" ht="19">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="4" spans="1:7" ht="19">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="19">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3">
+      <c r="G4" s="1">
         <v>1</v>
       </c>
     </row>

--- a/Alpha/Hotel/LittleFramework_02/bravo.xlsx
+++ b/Alpha/Hotel/LittleFramework_02/bravo.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10613"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF57CC5-DA7C-FA42-B994-8B97E07B9C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37FB02D-E239-764D-B012-78F0DB7FA219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11400" yWindow="-20080" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2360" yWindow="3420" windowWidth="28800" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -657,7 +657,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
